--- a/similarities/split_global/harmonic_similarity_timestamps_304.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_304.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,663 +484,701 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E', 'B', 'F#']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E', 'B']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:26.162131', '0:00:48.488117')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.033000', '0:00:34.866000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=26.162131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>jaah_60</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>jaah_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>['E:min7', 'A:7', 'A:min7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj']]</t>
+          <t>['A:min7', 'D:7', 'D:min7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:36.241000', '0:01:41.882000')]</t>
+          <t>('0:00:18.620000', '0:00:21.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:37.320000')]</t>
+          <t>('0:00:24.910000', '0:00:29')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=18.62</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=31.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=24.91</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:32.440000', '0:00:34.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:01:10.519024', '0:01:15.720294')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min7', 'F:7']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7/3', 'G:min7', 'C:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.550000', '0:00:22.230000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.970000', '0:00:02.990000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=0.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/b7']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.100000', '0:01:04.320000')]</t>
+          <t>('0:00:39.020000', '0:00:57.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:03.382018', '0:01:11.149092')]</t>
+          <t>('0:00:16.560000', '0:00:45.260000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:37.053000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:11.860000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=5.8']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:35.800000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G', 'B:7', 'E:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:maj', 'C#:7/G#', 'F#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:00.427000', '0:00:05.357000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000')]</t>
+          <t>('0:00:00.200000', '0:00:09.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=0.427</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=0.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000'), ('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1150,32 +1188,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:min', 'E/G#', 'D#:min/A#'], ['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:03:19.440000', '0:03:22.060000'), ('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:45.400000', '0:00:48.120000'), ('0:01:38.020000', '0:01:50.760000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=199.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=45.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1184,6 +1222,8 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
